--- a/Zeta-Potential_Plots/20240119_Zeta_DIPLibrary_pDNA10_water copy.xlsx
+++ b/Zeta-Potential_Plots/20240119_Zeta_DIPLibrary_pDNA10_water copy.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mines0-my.sharepoint.com/personal/aryellewright_mines_edu/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aryellewright/Documents/Documents - Aryelle’s MacBook Air/Kumar-Biomaterials-Lab/Zeta-Potential_Plots/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="40" documentId="8_{25D0D76E-B3FC-BD4D-8FCD-94119744B95C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EE45A9CE-3AC2-AB45-AEBC-593FB4B63100}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{750D85F5-DFF0-A14E-8236-4399ABA48ED7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="1160" windowWidth="25040" windowHeight="14820" xr2:uid="{71C9F7E5-05EF-E84A-9742-40677AE473A7}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t>Polymer</t>
   </si>
@@ -51,21 +51,6 @@
     <t>pDNA</t>
   </si>
   <si>
-    <t>DIP S1</t>
-  </si>
-  <si>
-    <t>DIP B1</t>
-  </si>
-  <si>
-    <t>DIP G1</t>
-  </si>
-  <si>
-    <t>DIP G2</t>
-  </si>
-  <si>
-    <t>DIP G3</t>
-  </si>
-  <si>
     <t>S1</t>
   </si>
   <si>
@@ -79,6 +64,12 @@
   </si>
   <si>
     <t>G3</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>B</t>
   </si>
 </sst>
 </file>
@@ -433,7 +424,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C2"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -462,7 +453,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>43.396666666666668</v>
@@ -473,7 +464,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B4">
         <v>39.376666666666665</v>
@@ -532,7 +523,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B1">
         <v>43.09</v>
@@ -554,7 +545,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>40.619999999999997</v>
@@ -576,7 +567,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>44.4</v>
@@ -598,7 +589,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B4">
         <v>50.08</v>
@@ -620,7 +611,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>33.369999999999997</v>
